--- a/機能一覧表.xlsx
+++ b/機能一覧表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\246037\Documents\groupwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sapporomirai1.sharepoint.com/sites/msteams_7e002a-18/Shared Documents/ああああ/246037_山澤来翔/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E562A31-4BA0-4C05-B0DA-3DC7F7FAA99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="13_ncr:1_{3E562A31-4BA0-4C05-B0DA-3DC7F7FAA99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC0B74B4-8F49-43AA-8A6E-BBDE71982D23}"/>
   <bookViews>
-    <workbookView xWindow="4284" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{43D11750-439D-4BAB-A3C4-7BCDEFF6E256}"/>
+    <workbookView xWindow="9360" yWindow="4212" windowWidth="12228" windowHeight="11916" xr2:uid="{43D11750-439D-4BAB-A3C4-7BCDEFF6E256}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,25 +36,194 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>機能一覧</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山澤、竹田</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>予定日になったら通知を行う</t>
+  </si>
+  <si>
+    <t>予定管理</t>
+  </si>
+  <si>
+    <t>機能</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>詳細</t>
+  </si>
+  <si>
+    <t>機能一覧表</t>
+  </si>
+  <si>
+    <t>リスト</t>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <t>曜日表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日判定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期限管理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残日数表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰り返し予定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稼働日計算</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力された日付から曜日を自動表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当日の日付を自動判定し、該当行を強調表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期限日を設定し、期限超過を判定する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定日までの残り日数を自動計算する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎週・毎月などの定期予定を管理する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土日・祝日を除いた稼働日で日付を計算する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定日通知</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事前通知</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定日になったら通知を行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定内容の記入</t>
     <rPh sb="0" eb="4">
-      <t>キノウイチラン</t>
+      <t>ヨテイナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メンバー管理</t>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
+    <rPh sb="5" eb="7">
+      <t>キニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>概要</t>
+    <t>完了通知</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定完了時に通知する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期限を過ぎた予定を通知する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知対象の予定を色で強調表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール連携</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルを開いた時に通知判定を自動実行する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Outlook等と連携してメール通知を行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定のリスト化</t>
     <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定の詳細の追加</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定項目の追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強調表示通知</t>
+    <rPh sb="0" eb="2">
+      <t>キョウチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ヒョウジツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期限超過通知</t>
+    <rPh sb="0" eb="6">
+      <t>キゲンチョウカツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定日の○日前に通知を行う</t>
+    <rPh sb="5" eb="7">
+      <t>ニチマエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -63,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +248,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -97,6 +281,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -106,9 +358,279 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -117,15 +639,126 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -142,6 +775,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,43 +1098,883 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AD0E07-4293-47C3-AB7B-2643603AC2E6}">
-  <dimension ref="D4:D9"/>
+  <dimension ref="B1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="13.296875" customWidth="1"/>
+    <col min="4" max="4" width="12.296875" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0.19921875" customWidth="1"/>
+    <col min="10" max="10" width="0.19921875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0.296875" customWidth="1"/>
+    <col min="15" max="15" width="5.8984375" customWidth="1"/>
+    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="1.296875" customWidth="1"/>
+    <col min="23" max="23" width="8.796875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D4" s="1" t="s">
+    <row r="1" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D5" s="1" t="s">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+    </row>
+    <row r="4" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D9" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+    </row>
+    <row r="13" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+    </row>
+    <row r="15" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B17" s="11"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="22"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B18" s="11"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="31"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B19" s="11"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="22"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B20" s="11"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="24"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B21" s="11"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="37"/>
+    </row>
+    <row r="22" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="39"/>
     </row>
   </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="B16:E22"/>
+    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="N21:X21"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="N17:X17"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="N11:X11"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="B6:E13"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="N6:X6"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="N7:X7"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="N5:X5"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B7C516133950764AB5B43AAA3627279B" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="1cb0594573ec7dc7983be4119276fd60">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71c9bc44-12c7-43ad-8370-288f35398788" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e93c1ce3ee8b5d63be7d75120a04b8b" ns2:_="">
+    <xsd:import namespace="71c9bc44-12c7-43ad-8370-288f35398788"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="71c9bc44-12c7-43ad-8370-288f35398788" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAD1672-A920-4086-9334-496F88466881}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71c9bc44-12c7-43ad-8370-288f35398788"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEA9735-6441-4CA3-A0F3-E673B7A8D775}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="71c9bc44-12c7-43ad-8370-288f35398788"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E235E182-B95C-498D-BB2C-169E2E70EB82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/機能一覧表.xlsx
+++ b/機能一覧表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sapporomirai1.sharepoint.com/sites/msteams_7e002a-18/Shared Documents/ああああ/246037_山澤来翔/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\246037\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="13_ncr:1_{3E562A31-4BA0-4C05-B0DA-3DC7F7FAA99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC0B74B4-8F49-43AA-8A6E-BBDE71982D23}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AEC2B5-8A0D-4776-AB7C-A575CFBCE8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="4212" windowWidth="12228" windowHeight="11916" xr2:uid="{43D11750-439D-4BAB-A3C4-7BCDEFF6E256}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43D11750-439D-4BAB-A3C4-7BCDEFF6E256}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -652,15 +652,102 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,93 +758,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,10 +775,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1101,7 +1097,7 @@
   <dimension ref="B1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:M27"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1148,89 +1144,89 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="7" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
     </row>
     <row r="4" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="7" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
     </row>
     <row r="5" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
@@ -1239,232 +1235,232 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="17" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="21" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="23" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="21" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="23" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="21" t="s">
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="23" t="s">
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
     </row>
     <row r="13" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27" t="s">
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
@@ -1473,58 +1469,58 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="17" t="s">
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
     </row>
     <row r="15" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="27" t="s">
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
@@ -1533,231 +1529,214 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="17" t="s">
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B17" s="11"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="18" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="21" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="22"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="19"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B18" s="11"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="28" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="30" t="s">
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="31"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="15"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B19" s="11"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="19" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="22"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="19"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B20" s="11"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="5" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="23" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="24"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="23"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B21" s="11"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="32" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="36" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="37"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="27"/>
     </row>
     <row r="22" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="34" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="38" t="s">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="39"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B16:E22"/>
-    <mergeCell ref="N22:X22"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="N21:X21"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="N17:X17"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="N11:X11"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="R4:X4"/>
     <mergeCell ref="F13:M13"/>
     <mergeCell ref="N13:X13"/>
     <mergeCell ref="B6:E13"/>
@@ -1770,14 +1749,31 @@
     <mergeCell ref="F9:M9"/>
     <mergeCell ref="N9:X9"/>
     <mergeCell ref="F10:M10"/>
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="N11:X11"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="B16:E22"/>
+    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="N21:X21"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="N17:X17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1785,6 +1781,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B7C516133950764AB5B43AAA3627279B" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="1cb0594573ec7dc7983be4119276fd60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71c9bc44-12c7-43ad-8370-288f35398788" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e93c1ce3ee8b5d63be7d75120a04b8b" ns2:_="">
     <xsd:import namespace="71c9bc44-12c7-43ad-8370-288f35398788"/>
@@ -1922,12 +1924,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1938,6 +1934,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEA9735-6441-4CA3-A0F3-E673B7A8D775}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="71c9bc44-12c7-43ad-8370-288f35398788"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAD1672-A920-4086-9334-496F88466881}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1955,22 +1967,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEA9735-6441-4CA3-A0F3-E673B7A8D775}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="71c9bc44-12c7-43ad-8370-288f35398788"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E235E182-B95C-498D-BB2C-169E2E70EB82}">
   <ds:schemaRefs>
